--- a/prabhu123.xlsx
+++ b/prabhu123.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="538">
   <si>
     <t>Softscape</t>
   </si>
@@ -1629,6 +1629,9 @@
   <si>
     <t>prbhu123</t>
   </si>
+  <si>
+    <t>prabhu_isssue</t>
+  </si>
 </sst>
 </file>
 
@@ -3104,7 +3107,7 @@
       <pane xSplit="3" ySplit="16" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3689,7 +3692,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>22</v>
+        <v>537</v>
       </c>
       <c r="E5" s="72" t="s">
         <v>22</v>
